--- a/Data/EC/NIT-9012688868.xlsx
+++ b/Data/EC/NIT-9012688868.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9063BB3B-5C6E-4C68-B4F1-E08BBA615F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98EB56D-D062-4DBC-A0F4-6DAA678BF1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8173CE82-FE22-482E-8202-A8DAF78DA81D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BB56DE9-5245-4D10-A5AA-338C4E7BE793}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,54 +65,63 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73211190</t>
+  </si>
+  <si>
+    <t>JORGE LUIS MARTINEZ QUINTANA</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
     <t>1043961077</t>
   </si>
   <si>
     <t>OSCAR DAVID PUERTA MANJARREZ</t>
   </si>
   <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
     <t>2202</t>
   </si>
   <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
     <t>CE</t>
   </si>
   <si>
@@ -129,6 +138,15 @@
   </si>
   <si>
     <t>WILTON MACIAS SANCHEZ</t>
+  </si>
+  <si>
+    <t>1043005117</t>
+  </si>
+  <si>
+    <t>ENOC DE JESUS OROZCO ARROYO</t>
+  </si>
+  <si>
+    <t>2503</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -172,7 +190,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEEAA56-2D01-A62A-58D5-7A008122790C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F16EC1-E031-99F2-72AF-3A6927A6BE9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,32 +911,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F466EAB3-DAA3-4092-B147-193FDB77489B}">
-  <dimension ref="B2:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B9E589-D9F1-42E3-9E8E-67BC8EA36DF9}">
+  <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -927,7 +945,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -938,7 +956,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -949,7 +967,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -960,10 +978,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -976,8 +994,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -992,15 +1010,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>704320</v>
+        <v>875140</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1008,27 +1026,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1048,16 +1066,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1071,30 +1089,30 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>48000</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>48000</v>
+        <v>43200</v>
       </c>
       <c r="G17" s="18">
         <v>1200000</v>
@@ -1103,18 +1121,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>48000</v>
@@ -1126,18 +1144,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>48000</v>
@@ -1149,18 +1167,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>48000</v>
@@ -1172,18 +1190,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>48000</v>
@@ -1195,18 +1213,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>48000</v>
@@ -1218,18 +1236,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>48000</v>
@@ -1241,18 +1259,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>48000</v>
@@ -1264,18 +1282,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>48000</v>
@@ -1287,18 +1305,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>48000</v>
@@ -1310,18 +1328,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>48000</v>
@@ -1333,18 +1351,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>48000</v>
@@ -1356,21 +1374,21 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>43200</v>
+        <v>48000</v>
       </c>
       <c r="G29" s="18">
         <v>1200000</v>
@@ -1379,80 +1397,149 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F30" s="18">
-        <v>20107</v>
+        <v>48000</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>1200000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="24">
+      <c r="E31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="18">
+        <v>20107</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="18">
         <v>17013</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G32" s="18">
         <v>1160000</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G34" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="H39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9012688868.xlsx
+++ b/Data/EC/NIT-9012688868.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98EB56D-D062-4DBC-A0F4-6DAA678BF1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A451C3DE-0E95-4B2A-81C2-08884A806D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BB56DE9-5245-4D10-A5AA-338C4E7BE793}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F4F6667-9014-46C6-8E7F-FA27D848D5F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,63 +65,54 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73211190</t>
-  </si>
-  <si>
-    <t>JORGE LUIS MARTINEZ QUINTANA</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
     <t>1043961077</t>
   </si>
   <si>
     <t>OSCAR DAVID PUERTA MANJARREZ</t>
   </si>
   <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>2303</t>
   </si>
   <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
     <t>CE</t>
   </si>
   <si>
@@ -138,15 +129,6 @@
   </si>
   <si>
     <t>WILTON MACIAS SANCHEZ</t>
-  </si>
-  <si>
-    <t>1043005117</t>
-  </si>
-  <si>
-    <t>ENOC DE JESUS OROZCO ARROYO</t>
-  </si>
-  <si>
-    <t>2503</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -245,7 +227,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -258,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -460,23 +442,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,10 +486,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21F16EC1-E031-99F2-72AF-3A6927A6BE9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C12B24-910A-4B26-C423-9D81EA428F3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,8 +893,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B9E589-D9F1-42E3-9E8E-67BC8EA36DF9}">
-  <dimension ref="B2:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F23790-A0BD-4717-8028-89C3D680A0F7}">
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -936,7 +918,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -981,7 +963,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1013,12 +995,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>875140</v>
+        <v>704320</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1029,17 +1011,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1066,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1089,10 +1071,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>48000</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1103,16 +1085,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>43200</v>
+        <v>48000</v>
       </c>
       <c r="G17" s="18">
         <v>1200000</v>
@@ -1126,13 +1108,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>48000</v>
@@ -1149,13 +1131,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>48000</v>
@@ -1172,13 +1154,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>48000</v>
@@ -1195,13 +1177,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>48000</v>
@@ -1218,13 +1200,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>48000</v>
@@ -1241,13 +1223,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>48000</v>
@@ -1264,13 +1246,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>48000</v>
@@ -1287,13 +1269,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>48000</v>
@@ -1310,13 +1292,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>48000</v>
@@ -1333,13 +1315,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>48000</v>
@@ -1356,13 +1338,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>48000</v>
@@ -1379,16 +1361,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>48000</v>
+        <v>43200</v>
       </c>
       <c r="G29" s="18">
         <v>1200000</v>
@@ -1399,147 +1381,78 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
-        <v>48000</v>
+        <v>20107</v>
       </c>
       <c r="G30" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="18">
-        <v>20107</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="F31" s="24">
+        <v>17013</v>
+      </c>
+      <c r="G31" s="24">
         <v>1160000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="18">
-        <v>17013</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G34" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="H39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="H40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
